--- a/medicine/Psychotrope/Boza/Boza.xlsx
+++ b/medicine/Psychotrope/Boza/Boza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le boza est une boisson fermentée à base de céréales (millet, blé, maïs…). Très populaire sous l'Empire ottoman, elle fut cependant interdite pendant un temps en raison de l'alcool qu'elle contenait, même en très faible quantité.
@@ -514,7 +526,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le boulgour, le maïs ou d'autres céréales selon la région, est cuit pour que l’amidon se transforme en dextrine qui va fermenter beaucoup plus facilement et rapidement. Puis du sucre est ajouté qui va alimenter les levures afin d’accélérer leur effet. Le tout est ensemencé avec de la présure, des ferments de yaourt ou d'autres cultures.
 On laisse fermenter l'ensemble pendant cinq jours. Pour le goût, on ajoute deux gousses de vanille. Dans les Balkans, on ajoutera en plus de la cannelle.
@@ -548,7 +562,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mevlut Karataş, le personnage principal du roman Cette chose étrange en moi (2014) d'Orhan Pamuk, est un marchand de boza.
 </t>
